--- a/main.xlsx
+++ b/main.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGlop\d\mindustry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6D946-C926-44BE-AFED-946767DBE2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D8081-7FE8-40B9-A444-9D6DC30F9D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Erekir" sheetId="1" r:id="rId1"/>
+    <sheet name="Serpulo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>breach</t>
   </si>
@@ -91,6 +92,87 @@
   </si>
   <si>
     <t>interceptable</t>
+  </si>
+  <si>
+    <t>duo</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>scorch</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>dpsa</t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>air only</t>
+  </si>
+  <si>
+    <t>burn, GND only</t>
+  </si>
+  <si>
+    <t>pierce, burn, GND only</t>
+  </si>
+  <si>
+    <t>shocked, GND only</t>
+  </si>
+  <si>
+    <t>salvo</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>GND only</t>
+  </si>
+  <si>
+    <t>ripple</t>
+  </si>
+  <si>
+    <t>tar+burn=8</t>
+  </si>
+  <si>
+    <t>wet+shock=14</t>
+  </si>
+  <si>
+    <t>freeze+blast=18</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>meltdown</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>blast, GND only</t>
+  </si>
+  <si>
+    <t>coolant</t>
+  </si>
+  <si>
+    <t>swarmer</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>cyclone</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
 </sst>
 </file>
@@ -439,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+    <sheetView zoomScale="152" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -699,4 +781,513 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CFE279-01A3-4B18-B4E6-5757F9438742}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="1"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="1">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <f>3*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B2*C2*F2*G2</f>
+        <v>54</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2/I2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="1">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <f>3+45+6*5</f>
+        <v>78</v>
+      </c>
+      <c r="C3" s="1">
+        <f>6.66*0.8</f>
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="0">B3*C3*F3*G3</f>
+        <v>124.67519999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J13" si="1">H3/I3</f>
+        <v>20.779199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="1">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>29.37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="1">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.74</v>
+      </c>
+      <c r="E7" s="1">
+        <v>23.75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>314.24399999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>39.280499999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="1">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20.62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="1">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>36.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>34.466666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>863.52</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>57.567999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="1">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1">
+        <f>936/C11</f>
+        <v>1418.181818181818</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>24.37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2105.9999999999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>105.29999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="1">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>105.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="1">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="1">
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="1">
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="1">
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{161FBD2C-5D24-4834-BF22-8FC60CF5BDC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{161FBD2C-5D24-4834-BF22-8FC60CF5BDC2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iGlop\d\mindustry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D8081-7FE8-40B9-A444-9D6DC30F9D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9D2AA4-6685-4E3B-AF82-DEB0824A3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="-86" windowWidth="13339" windowHeight="9172" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erekir" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>breach</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>shocked</t>
+  </si>
+  <si>
+    <t>foreshadow</t>
+  </si>
+  <si>
+    <t>targets boss</t>
+  </si>
+  <si>
+    <t>spectre</t>
+  </si>
+  <si>
+    <t>non-aoe, burn</t>
   </si>
 </sst>
 </file>
@@ -791,12 +803,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -895,14 +907,14 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H13" si="0">B3*C3*F3*G3</f>
+        <f t="shared" ref="H3:H15" si="0">B3*C3*F3*G3</f>
         <v>124.67519999999999</v>
       </c>
       <c r="I3" s="1">
         <v>6</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J13" si="1">H3/I3</f>
+        <f t="shared" ref="J3:J15" si="1">H3/I3</f>
         <v>20.779199999999999</v>
       </c>
     </row>
@@ -1239,6 +1251,74 @@
       <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>46.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="1">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1350</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="1">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>771.30000000000007</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>38.565000000000005</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="1">
